--- a/СЛАУ Метод Гаусса.xlsx
+++ b/СЛАУ Метод Гаусса.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF00C0-E59F-4EA5-9485-82576EC2C6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485C69C5-350B-4E35-ACB2-7CE106C7B8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B70C56F0-9291-4471-95F3-619E217BE479}"/>
+    <workbookView xWindow="1170" yWindow="720" windowWidth="23490" windowHeight="15480" xr2:uid="{B70C56F0-9291-4471-95F3-619E217BE479}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#&quot; &quot;???/???"/>
+    <numFmt numFmtId="164" formatCode="#&quot; &quot;???/???"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -106,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -306,26 +306,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -386,6 +411,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -703,7 +737,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,97 +757,97 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
+      <c r="B2" s="26">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="26">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="28">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="27">
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f>IF(INT(B2)=B2,B2,TEXT(B2,"###/###"))</f>
         <v>9</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f t="shared" ref="H2:J2" si="0">IF(INT(C2)=C2,C2,TEXT(C2,"###/###"))</f>
         <v>8</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="26">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="26">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="28">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="27">
         <v>-3</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G5" si="1">IF(INT(B3)=B3,B3,TEXT(B3,"###/###"))</f>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G4" si="1">IF(INT(B3)=B3,B3,TEXT(B3,"###/###"))</f>
         <v>3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H4" si="2">IF(INT(C3)=C3,C3,TEXT(C3,"###/###"))</f>
         <v>6</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <f t="shared" ref="I3:I4" si="3">IF(INT(D3)=D3,D3,TEXT(D3,"###/###"))</f>
         <v>3</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f t="shared" ref="J3:J4" si="4">IF(INT(E3)=E3,E3,TEXT(E3,"###/###"))</f>
         <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="26">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="26">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5"/>
@@ -821,7 +855,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5">
         <f>B2/$B$2</f>
         <v>1</v>
@@ -838,25 +872,25 @@
         <f>E2/$B$2</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f>IF(INT(B8)=B8,B8,TEXT(B8,"###/###"))</f>
         <v>1</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" ref="H8:H10" si="5">IF(INT(C8)=C8,C8,TEXT(C8,"###/###"))</f>
         <v>8/9</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="10" t="str">
         <f t="shared" ref="I8:I10" si="6">IF(INT(D8)=D8,D8,TEXT(D8,"###/###"))</f>
         <v>1/3</v>
       </c>
-      <c r="J8" s="11" t="str">
+      <c r="J8" s="10" t="str">
         <f t="shared" ref="J8:J10" si="7">IF(INT(E8)=E8,E8,TEXT(E8,"###/###"))</f>
         <v>4/9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5">
         <f>B3-$B3*B$8</f>
         <v>0</v>
@@ -873,19 +907,19 @@
         <f t="shared" si="8"/>
         <v>-4.333333333333333</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f t="shared" ref="G9:G10" si="9">IF(INT(B9)=B9,B9,TEXT(B9,"###/###"))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="5"/>
         <v>10/3</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="7"/>
         <v>-13/3</v>
       </c>
@@ -907,25 +941,25 @@
         <f t="shared" si="10"/>
         <v>-0.22222222222222232</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H10" s="15" t="str">
+      <c r="H10" s="14" t="str">
         <f t="shared" si="5"/>
         <v>-13/9</v>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="15" t="str">
         <f t="shared" si="6"/>
         <v>-2/3</v>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="15" t="str">
         <f t="shared" si="7"/>
         <v>-2/9</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -946,19 +980,19 @@
         <f t="shared" si="11"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f>IF(INT(B13)=B13,B13,TEXT(B13,"###/###"))</f>
         <v>1</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="9" t="str">
         <f t="shared" ref="H13:H15" si="12">IF(INT(C13)=C13,C13,TEXT(C13,"###/###"))</f>
         <v>8/9</v>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I13" s="10" t="str">
         <f t="shared" ref="I13:I15" si="13">IF(INT(D13)=D13,D13,TEXT(D13,"###/###"))</f>
         <v>1/3</v>
       </c>
-      <c r="J13" s="11" t="str">
+      <c r="J13" s="10" t="str">
         <f t="shared" ref="J13:J15" si="14">IF(INT(E13)=E13,E13,TEXT(E13,"###/###"))</f>
         <v>4/9</v>
       </c>
@@ -980,19 +1014,19 @@
         <f>E9/$C$9</f>
         <v>-1.2999999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" ref="G14:G15" si="16">IF(INT(B14)=B14,B14,TEXT(B14,"###/###"))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="I14" s="13" t="str">
+      <c r="I14" s="12" t="str">
         <f t="shared" si="13"/>
         <v>3/5</v>
       </c>
-      <c r="J14" s="13" t="str">
+      <c r="J14" s="12" t="str">
         <f t="shared" si="14"/>
         <v>-13/10</v>
       </c>
@@ -1014,19 +1048,19 @@
         <f t="shared" si="17"/>
         <v>-2.1</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="15" t="str">
         <f t="shared" si="13"/>
         <v>1/5</v>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="15" t="str">
         <f t="shared" si="14"/>
         <v>-21/10</v>
       </c>
@@ -1056,19 +1090,19 @@
         <f t="shared" si="18"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f>IF(INT(B18)=B18,B18,TEXT(B18,"###/###"))</f>
         <v>1</v>
       </c>
-      <c r="H18" s="23" t="str">
+      <c r="H18" s="22" t="str">
         <f t="shared" ref="H18:H20" si="19">IF(INT(C18)=C18,C18,TEXT(C18,"###/###"))</f>
         <v>8/9</v>
       </c>
-      <c r="I18" s="20" t="str">
+      <c r="I18" s="19" t="str">
         <f t="shared" ref="I18:I20" si="20">IF(INT(D18)=D18,D18,TEXT(D18,"###/###"))</f>
         <v>1/3</v>
       </c>
-      <c r="J18" s="20" t="str">
+      <c r="J18" s="19" t="str">
         <f t="shared" ref="J18:J20" si="21">IF(INT(E18)=E18,E18,TEXT(E18,"###/###"))</f>
         <v>4/9</v>
       </c>
@@ -1079,7 +1113,7 @@
         <f>E18-(C18*M19+D18*M20)</f>
         <v>-0.49999999999999711</v>
       </c>
-      <c r="O18" s="26" t="str">
+      <c r="O18" s="25" t="str">
         <f>IF(INT(M18)=M18,M18,TEXT(M18,"###/###"))</f>
         <v>-1/2</v>
       </c>
@@ -1101,19 +1135,19 @@
         <f t="shared" si="22"/>
         <v>-1.2999999999999998</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <f t="shared" ref="G19:G20" si="23">IF(INT(B19)=B19,B19,TEXT(B19,"###/###"))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="21" t="str">
         <f t="shared" si="20"/>
         <v>3/5</v>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="21" t="str">
         <f t="shared" si="21"/>
         <v>-13/10</v>
       </c>
@@ -1124,14 +1158,14 @@
         <f>E19-D19*M20</f>
         <v>4.9999999999999911</v>
       </c>
-      <c r="O19" s="26" t="str">
+      <c r="O19" s="25" t="str">
         <f t="shared" ref="O19:O20" si="24">IF(INT(M19)=M19,M19,TEXT(M19,"###/###"))</f>
         <v>5/1</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <f t="shared" ref="B20:E20" si="25">B15</f>
+        <f t="shared" ref="B20:C20" si="25">B15</f>
         <v>0</v>
       </c>
       <c r="C20" s="3">
@@ -1146,19 +1180,19 @@
         <f>E15/$D$15</f>
         <v>-10.499999999999986</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="J20" s="17" t="str">
+      <c r="J20" s="16" t="str">
         <f t="shared" si="21"/>
         <v>-21/2</v>
       </c>
@@ -1169,7 +1203,7 @@
         <f>E20</f>
         <v>-10.499999999999986</v>
       </c>
-      <c r="O20" s="26" t="str">
+      <c r="O20" s="25" t="str">
         <f t="shared" si="24"/>
         <v>-21/2</v>
       </c>

--- a/СЛАУ Метод Гаусса.xlsx
+++ b/СЛАУ Метод Гаусса.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485C69C5-350B-4E35-ACB2-7CE106C7B8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80E17C-1415-46D6-8470-D4917B8CF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="720" windowWidth="23490" windowHeight="15480" xr2:uid="{B70C56F0-9291-4471-95F3-619E217BE479}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="23490" windowHeight="15480" xr2:uid="{B70C56F0-9291-4471-95F3-619E217BE479}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -737,7 +737,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
         <v>-0.49999999999999711</v>
       </c>
       <c r="O18" s="25" t="str">
-        <f>IF(INT(M18)=M18,M18,TEXT(M18,"###/###"))</f>
+        <f>IF(INT(M18)=M18,TEXT(M18,"#"),TEXT(M18,"###/###"))</f>
         <v>-1/2</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>4.9999999999999911</v>
       </c>
       <c r="O19" s="25" t="str">
-        <f t="shared" ref="O19:O20" si="24">IF(INT(M19)=M19,M19,TEXT(M19,"###/###"))</f>
+        <f t="shared" ref="O19:O20" si="24">IF(INT(M19)=M19,TEXT(M19,"#"),TEXT(M19,"###/###"))</f>
         <v>5/1</v>
       </c>
     </row>
